--- a/src/main/resources/configfile/testData.xlsx
+++ b/src/main/resources/configfile/testData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/latestPageObjectModelFramework/src/main/resources/configfile/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92AE3D8-8947-3F41-B8FF-1CFD477E437F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BFE6792B-1321-407D-B995-4A4089DA5D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="LoginData" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Test Steps</t>
   </si>
@@ -94,6 +90,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>26929004604@app.f13works.com</t>
   </si>
 </sst>
 </file>
@@ -494,13 +493,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -514,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,9 +582,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -593,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -601,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -628,16 +627,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -651,31 +651,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>26929004604</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26929004604</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -693,7 +693,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{48AF9F90-9F5B-B04A-8876-7EEB3986E76D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -703,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/configfile/testData.xlsx
+++ b/src/main/resources/configfile/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BFE6792B-1321-407D-B995-4A4089DA5D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4EE12FE4-2380-4601-86DC-81737C5A06DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Test Steps</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>26929004604@app.f13works.com</t>
+  </si>
+  <si>
+    <t>24868094032@app.f13works.com</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,10 +669,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
-        <v>26929004604</v>
+        <v>24868094032</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
